--- a/data/bridge_year_acls.xlsx
+++ b/data/bridge_year_acls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura.smith\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA861450-A9B0-4DD6-90CF-C683BF8AA37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50078A7B-2850-4518-902F-2E47F61D630E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2AEC959E-E342-44EB-9106-197505B7CE41}"/>
   </bookViews>
@@ -436,8 +436,8 @@
   <dimension ref="A1:D103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A95" sqref="A95"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,30 +463,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>2020</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2020</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -497,24 +497,24 @@
         <v>2020</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>51</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>2020</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -525,10 +525,10 @@
         <v>2020</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -539,24 +539,24 @@
         <v>2020</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>2020</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -567,52 +567,52 @@
         <v>2020</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B10">
         <v>2020</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>2020</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12">
         <v>2020</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -623,10 +623,10 @@
         <v>2020</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D13">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -637,38 +637,38 @@
         <v>2020</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>2020</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B16">
         <v>2020</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D16">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -679,10 +679,10 @@
         <v>2020</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D17">
-        <v>119</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -693,38 +693,38 @@
         <v>2020</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D18">
-        <v>119</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B19">
         <v>2021</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D19">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B20">
         <v>2021</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -735,24 +735,24 @@
         <v>2021</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D21">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B22">
         <v>2021</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -763,10 +763,10 @@
         <v>2021</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -777,21 +777,21 @@
         <v>2021</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D24">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25">
         <v>2021</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -805,52 +805,52 @@
         <v>2021</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B27">
         <v>2021</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B28">
         <v>2021</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D28">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B29">
         <v>2021</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D29">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -861,10 +861,10 @@
         <v>2021</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D30">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -875,38 +875,38 @@
         <v>2021</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D31">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B32">
         <v>2021</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D32">
-        <v>11</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B33">
         <v>2021</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D33">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -917,10 +917,10 @@
         <v>2021</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -931,38 +931,38 @@
         <v>2021</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B36">
         <v>2022</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D36">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B37">
         <v>2022</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -973,24 +973,24 @@
         <v>2022</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D38">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B39">
         <v>2022</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1001,10 +1001,10 @@
         <v>2022</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D40">
-        <v>0.2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1015,21 +1015,21 @@
         <v>2022</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D41">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B42">
         <v>2022</v>
       </c>
       <c r="C42" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>2022</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1051,44 +1051,44 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B44">
         <v>2022</v>
       </c>
       <c r="C44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D44">
-        <v>2.2999999999999998</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B45">
         <v>2022</v>
       </c>
       <c r="C45" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B46">
         <v>2022</v>
       </c>
       <c r="C46" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D46">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1099,10 +1099,10 @@
         <v>2022</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D47">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1113,38 +1113,38 @@
         <v>2022</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D48">
-        <v>132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B49">
         <v>2022</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D49">
-        <v>11</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B50">
         <v>2022</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D50">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1155,10 +1155,10 @@
         <v>2022</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1169,7 +1169,7 @@
         <v>2022</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -1177,30 +1177,30 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B53">
         <v>2023</v>
       </c>
       <c r="C53" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D53">
-        <v>16.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B54">
         <v>2023</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D54">
-        <v>2.7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1211,24 +1211,24 @@
         <v>2023</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D55">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B56">
         <v>2023</v>
       </c>
       <c r="C56" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1239,10 +1239,10 @@
         <v>2023</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D57">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1253,21 +1253,21 @@
         <v>2023</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D58">
-        <v>45</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B59">
         <v>2023</v>
       </c>
       <c r="C59" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -1281,52 +1281,52 @@
         <v>2023</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B61">
         <v>2023</v>
       </c>
       <c r="C61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D61">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B62">
         <v>2023</v>
       </c>
       <c r="C62" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B63">
         <v>2023</v>
       </c>
       <c r="C63" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D63">
-        <v>17</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1337,10 +1337,10 @@
         <v>2023</v>
       </c>
       <c r="C64" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D64">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1351,38 +1351,38 @@
         <v>2023</v>
       </c>
       <c r="C65" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D65">
-        <v>144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B66">
         <v>2023</v>
       </c>
       <c r="C66" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B67">
         <v>2023</v>
       </c>
       <c r="C67" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D67">
-        <v>19</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1393,10 +1393,10 @@
         <v>2023</v>
       </c>
       <c r="C68" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1407,38 +1407,38 @@
         <v>2023</v>
       </c>
       <c r="C69" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B70">
         <v>2024</v>
       </c>
       <c r="C70" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D70">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B71">
         <v>2024</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D71">
-        <v>2.7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1449,24 +1449,24 @@
         <v>2024</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D72">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B73">
         <v>2024</v>
       </c>
       <c r="C73" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1477,10 +1477,10 @@
         <v>2024</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D74">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1491,21 +1491,21 @@
         <v>2024</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D75">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B76">
         <v>2024</v>
       </c>
       <c r="C76" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -1519,52 +1519,52 @@
         <v>2024</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B78">
         <v>2024</v>
       </c>
       <c r="C78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D78">
-        <v>1.3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B79">
         <v>2024</v>
       </c>
       <c r="C79" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B80">
         <v>2024</v>
       </c>
       <c r="C80" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D80">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -1575,10 +1575,10 @@
         <v>2024</v>
       </c>
       <c r="C81" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D81">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -1589,38 +1589,38 @@
         <v>2024</v>
       </c>
       <c r="C82" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D82">
-        <v>144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B83">
         <v>2024</v>
       </c>
       <c r="C83" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B84">
         <v>2024</v>
       </c>
       <c r="C84" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D84">
-        <v>10</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -1631,10 +1631,10 @@
         <v>2024</v>
       </c>
       <c r="C85" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -1645,38 +1645,38 @@
         <v>2024</v>
       </c>
       <c r="C86" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B87">
         <v>2025</v>
       </c>
       <c r="C87" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D87">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B88">
         <v>2025</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D88">
-        <v>2.7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -1687,24 +1687,24 @@
         <v>2025</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D89">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B90">
         <v>2025</v>
       </c>
       <c r="C90" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>144</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -1715,10 +1715,10 @@
         <v>2025</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D91">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -1729,21 +1729,21 @@
         <v>2025</v>
       </c>
       <c r="C92" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D92">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B93">
         <v>2025</v>
       </c>
       <c r="C93" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -1757,52 +1757,52 @@
         <v>2025</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B95">
         <v>2025</v>
       </c>
       <c r="C95" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D95">
-        <v>1.3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B96">
         <v>2025</v>
       </c>
       <c r="C96" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B97">
         <v>2025</v>
       </c>
       <c r="C97" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D97">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -1813,10 +1813,10 @@
         <v>2025</v>
       </c>
       <c r="C98" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D98">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -1827,38 +1827,38 @@
         <v>2025</v>
       </c>
       <c r="C99" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D99">
-        <v>144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B100">
         <v>2025</v>
       </c>
       <c r="C100" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B101">
         <v>2025</v>
       </c>
       <c r="C101" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D101">
-        <v>10</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -1869,10 +1869,10 @@
         <v>2025</v>
       </c>
       <c r="C102" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -1883,13 +1883,16 @@
         <v>2025</v>
       </c>
       <c r="C103" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D103">
+    <sortCondition ref="B1:B103"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>